--- a/scripts/Dec22 copy.xlsx
+++ b/scripts/Dec22 copy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">lead_date</t>
   </si>
@@ -37,7 +37,10 @@
     <t xml:space="preserve">course_id</t>
   </si>
   <si>
-    <t xml:space="preserve">batch_time</t>
+    <t xml:space="preserve">course_mode_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_time_id</t>
   </si>
   <si>
     <t xml:space="preserve">source_id</t>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">agent_id</t>
   </si>
   <si>
+    <t xml:space="preserve">trainer_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">visit_date</t>
   </si>
   <si>
@@ -67,19 +73,22 @@
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">test1@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pune</t>
+    <t xml:space="preserve">1231234547@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00AM - 10:00AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -96,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,6 +133,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -176,12 +193,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,7 +202,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,99 +231,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1231234545</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="C2" s="4" t="n">
+        <v>1231234547</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>20</v>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="test1@test.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="1231234547@test.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
